--- a/output/piaseczno/sheets/piaseczno_long_term_monthly_average_noise_levels.xlsx
+++ b/output/piaseczno/sheets/piaseczno_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15392400" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.04193548387097</v>
+        <v>47.41039714366708</v>
       </c>
       <c r="C2" t="n">
-        <v>42.85161290322581</v>
+        <v>43.78918756050282</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.45357142857143</v>
+        <v>46.91247231935156</v>
       </c>
       <c r="C3" t="n">
-        <v>42.43214285714286</v>
+        <v>43.39434357094391</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.89354838709678</v>
+        <v>47.45747117682902</v>
       </c>
       <c r="C4" t="n">
-        <v>43.54516129032258</v>
+        <v>44.38639464834339</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.49</v>
+        <v>50.10447541472121</v>
       </c>
       <c r="C5" t="n">
-        <v>42.53</v>
+        <v>45.18805652478099</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.19677419354839</v>
+        <v>49.46677557674289</v>
       </c>
       <c r="C6" t="n">
-        <v>45.61935483870968</v>
+        <v>46.04450966815439</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.44333333333334</v>
+        <v>51.72829739537346</v>
       </c>
       <c r="C7" t="n">
-        <v>47.27666666666666</v>
+        <v>47.531108620365</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.99354838709677</v>
+        <v>49.09884755181668</v>
       </c>
       <c r="C8" t="n">
-        <v>45.56129032258065</v>
+        <v>46.60828892399176</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.21290322580645</v>
+        <v>45.86696194029314</v>
       </c>
       <c r="C9" t="n">
-        <v>44.4483870967742</v>
+        <v>45.54120299264519</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.37666666666667</v>
+        <v>46.99400687511734</v>
       </c>
       <c r="C10" t="n">
-        <v>45.78</v>
+        <v>46.77022387777239</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.34838709677419</v>
+        <v>45.56045611106329</v>
       </c>
       <c r="C11" t="n">
-        <v>44.70967741935484</v>
+        <v>45.10576351739527</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.91333333333333</v>
+        <v>43.18406935245203</v>
       </c>
       <c r="C12" t="n">
-        <v>41.86333333333334</v>
+        <v>43.88828881486995</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.22903225806451</v>
+        <v>43.4005256014928</v>
       </c>
       <c r="C13" t="n">
-        <v>40.56129032258065</v>
+        <v>44.13353259587219</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.80322580645161</v>
+        <v>44.54164923551913</v>
       </c>
       <c r="C14" t="n">
-        <v>41.12903225806452</v>
+        <v>42.39923419897791</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.70357142857143</v>
+        <v>42.52068884107723</v>
       </c>
       <c r="C15" t="n">
-        <v>41.08928571428572</v>
+        <v>42.29370978362668</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.80322580645161</v>
+        <v>42.82760477896095</v>
       </c>
       <c r="C16" t="n">
-        <v>42.56129032258065</v>
+        <v>43.26269530229677</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.36</v>
+        <v>42.63624046199183</v>
       </c>
       <c r="C17" t="n">
-        <v>43.31666666666667</v>
+        <v>44.11361726563592</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.3</v>
+        <v>47.30166979141727</v>
       </c>
       <c r="C18" t="n">
-        <v>45.03225806451613</v>
+        <v>47.33655994012621</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.56333333333334</v>
+        <v>46.04684810445738</v>
       </c>
       <c r="C19" t="n">
-        <v>44.15666666666667</v>
+        <v>44.90992741200903</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.7483870967742</v>
+        <v>42.60453529986545</v>
       </c>
       <c r="C20" t="n">
-        <v>43.80322580645161</v>
+        <v>44.29087541235512</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43.04838709677419</v>
+        <v>45.57673856672115</v>
       </c>
       <c r="C21" t="n">
-        <v>44.3258064516129</v>
+        <v>45.08461673166516</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.84666666666666</v>
+        <v>46.01032291515502</v>
       </c>
       <c r="C22" t="n">
-        <v>43.33666666666667</v>
+        <v>44.68485378560211</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39.92903225806452</v>
+        <v>42.17077675800155</v>
       </c>
       <c r="C23" t="n">
-        <v>42.96129032258064</v>
+        <v>44.06088755507697</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44.05333333333333</v>
+        <v>45.16207791053123</v>
       </c>
       <c r="C24" t="n">
-        <v>43.78</v>
+        <v>44.20328749513651</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.73548387096774</v>
+        <v>43.86500439771172</v>
       </c>
       <c r="C25" t="n">
-        <v>39.18064516129032</v>
+        <v>43.02631426813272</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39.16129032258065</v>
+        <v>42.44461032415767</v>
       </c>
       <c r="C26" t="n">
-        <v>38.61290322580645</v>
+        <v>42.43813728390974</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.33793103448276</v>
+        <v>39.6920375657444</v>
       </c>
       <c r="C27" t="n">
-        <v>35.27586206896552</v>
+        <v>41.70800834321572</v>
       </c>
     </row>
     <row r="28">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.86129032258065</v>
+        <v>40.49100025628781</v>
       </c>
       <c r="C28" t="n">
-        <v>18.1</v>
+        <v>42.19957568535588</v>
       </c>
     </row>
     <row r="29">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.85</v>
+        <v>36.41371020218725</v>
       </c>
       <c r="C29" t="n">
-        <v>6.27</v>
+        <v>30.97326975294258</v>
       </c>
     </row>
     <row r="30">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.461290322580646</v>
+        <v>33.57300333752934</v>
       </c>
       <c r="C30" t="n">
-        <v>17.26774193548387</v>
+        <v>36.88445457902631</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.18</v>
+        <v>32.3822650239718</v>
       </c>
       <c r="C31" t="n">
-        <v>14.11</v>
+        <v>32.94049491933458</v>
       </c>
     </row>
     <row r="32">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.36774193548387</v>
+        <v>37.92829170437723</v>
       </c>
       <c r="C32" t="n">
-        <v>27.94516129032258</v>
+        <v>38.02656107716032</v>
       </c>
     </row>
     <row r="33">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.01935483870967</v>
+        <v>39.73621356650433</v>
       </c>
       <c r="C33" t="n">
-        <v>36.98387096774194</v>
+        <v>37.77966775471136</v>
       </c>
     </row>
     <row r="34">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.85666666666667</v>
+        <v>39.00279428989693</v>
       </c>
       <c r="C34" t="n">
-        <v>29.25666666666666</v>
+        <v>38.35559211601937</v>
       </c>
     </row>
     <row r="35">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.13548387096775</v>
+        <v>38.4395159891264</v>
       </c>
       <c r="C35" t="n">
-        <v>24.04516129032258</v>
+        <v>36.94683200711039</v>
       </c>
     </row>
     <row r="36">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24.24</v>
+        <v>37.87240257115823</v>
       </c>
       <c r="C36" t="n">
-        <v>26.56</v>
+        <v>34.8406821108502</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.2741935483871</v>
+        <v>37.66435797999407</v>
       </c>
       <c r="C37" t="n">
-        <v>18.83225806451613</v>
+        <v>37.06384038761095</v>
       </c>
     </row>
     <row r="38">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.59032258064516</v>
+        <v>38.98684349202774</v>
       </c>
       <c r="C38" t="n">
-        <v>11.82258064516129</v>
+        <v>34.60279345260346</v>
       </c>
     </row>
     <row r="39">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.65357142857143</v>
+        <v>32.6511427591185</v>
       </c>
       <c r="C39" t="n">
-        <v>12.04642857142857</v>
+        <v>37.87581760607224</v>
       </c>
     </row>
     <row r="40">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.59354838709677</v>
+        <v>38.49297466286625</v>
       </c>
       <c r="C40" t="n">
-        <v>18.74516129032258</v>
+        <v>35.87287730180658</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.83666666666667</v>
+        <v>36.86638143862368</v>
       </c>
       <c r="C41" t="n">
-        <v>27.97333333333334</v>
+        <v>37.21941641972897</v>
       </c>
     </row>
     <row r="42">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.95806451612903</v>
+        <v>39.12803787863236</v>
       </c>
       <c r="C42" t="n">
-        <v>26.04193548387097</v>
+        <v>37.94223394878399</v>
       </c>
     </row>
     <row r="43">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.89</v>
+        <v>41.22849580284813</v>
       </c>
       <c r="C43" t="n">
-        <v>36.14666666666667</v>
+        <v>41.03839358924644</v>
       </c>
     </row>
     <row r="44">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.98064516129033</v>
+        <v>43.01799280281989</v>
       </c>
       <c r="C44" t="n">
-        <v>38.28064516129032</v>
+        <v>41.59359511982452</v>
       </c>
     </row>
     <row r="45">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.91612903225807</v>
+        <v>42.66170380604077</v>
       </c>
       <c r="C45" t="n">
-        <v>37.64516129032258</v>
+        <v>42.31725184822426</v>
       </c>
     </row>
     <row r="46">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>38.28666666666666</v>
+        <v>42.69162641536326</v>
       </c>
       <c r="C46" t="n">
-        <v>33.13666666666667</v>
+        <v>41.521293163446</v>
       </c>
     </row>
     <row r="47">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>37.48064516129033</v>
+        <v>41.85992452778261</v>
       </c>
       <c r="C47" t="n">
-        <v>34.7483870967742</v>
+        <v>40.98712460442682</v>
       </c>
     </row>
     <row r="48">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28.44666666666667</v>
+        <v>39.25310649862955</v>
       </c>
       <c r="C48" t="n">
-        <v>32.04</v>
+        <v>39.96501055952304</v>
       </c>
     </row>
     <row r="49">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>30.54838709677419</v>
+        <v>39.62451773721119</v>
       </c>
       <c r="C49" t="n">
-        <v>31.58064516129032</v>
+        <v>40.02931196275576</v>
       </c>
     </row>
     <row r="50">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>23.20967741935484</v>
+        <v>38.59229664662329</v>
       </c>
       <c r="C50" t="n">
-        <v>30.18709677419355</v>
+        <v>37.66284822339858</v>
       </c>
     </row>
     <row r="51">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>24.39642857142857</v>
+        <v>37.14186980698992</v>
       </c>
       <c r="C51" t="n">
-        <v>33.98214285714285</v>
+        <v>39.05327520507704</v>
       </c>
     </row>
     <row r="52">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18.37741935483871</v>
+        <v>33.96816565503388</v>
       </c>
       <c r="C52" t="n">
-        <v>26.05806451612903</v>
+        <v>36.86337560938378</v>
       </c>
     </row>
     <row r="53">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10.94</v>
+        <v>37.74912594593754</v>
       </c>
       <c r="C53" t="n">
-        <v>15.59333333333333</v>
+        <v>37.42654783892721</v>
       </c>
     </row>
     <row r="54">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>32.68064516129032</v>
+        <v>43.06025543751986</v>
       </c>
       <c r="C54" t="n">
-        <v>33.65483870967742</v>
+        <v>38.98473099786798</v>
       </c>
     </row>
     <row r="55">
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>34.19333333333334</v>
+        <v>44.89178037904891</v>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>38.54518431274371</v>
       </c>
     </row>
     <row r="56">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>35.70322580645161</v>
+        <v>41.55162025905842</v>
       </c>
       <c r="C56" t="n">
-        <v>36.31612903225806</v>
+        <v>40.0019195779481</v>
       </c>
     </row>
     <row r="57">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>24.08387096774194</v>
+        <v>36.64159326901233</v>
       </c>
       <c r="C57" t="n">
-        <v>29.68387096774194</v>
+        <v>37.89737464495711</v>
       </c>
     </row>
     <row r="58">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33.98</v>
+        <v>38.30379146770059</v>
       </c>
       <c r="C58" t="n">
-        <v>36.29666666666667</v>
+        <v>39.58841980829082</v>
       </c>
     </row>
     <row r="59">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>30.59032258064516</v>
+        <v>36.95062725486697</v>
       </c>
       <c r="C59" t="n">
-        <v>26.84516129032258</v>
+        <v>37.90858503502755</v>
       </c>
     </row>
     <row r="60">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>22.91666666666667</v>
+        <v>35.15002544517331</v>
       </c>
       <c r="C60" t="n">
-        <v>29.22</v>
+        <v>37.63371467470333</v>
       </c>
     </row>
     <row r="61">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>21.55806451612903</v>
+        <v>36.38926844738181</v>
       </c>
       <c r="C61" t="n">
-        <v>25.20645161290323</v>
+        <v>38.26919247406902</v>
       </c>
     </row>
     <row r="62">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>27.93548387096774</v>
+        <v>35.78353260833842</v>
       </c>
       <c r="C62" t="n">
-        <v>29.44516129032258</v>
+        <v>37.33087442017126</v>
       </c>
     </row>
     <row r="63">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>27.83214285714286</v>
+        <v>37.37526289654456</v>
       </c>
       <c r="C63" t="n">
-        <v>35.525</v>
+        <v>41.11399113477212</v>
       </c>
     </row>
     <row r="64">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>23.61290322580645</v>
+        <v>34.46364568611437</v>
       </c>
       <c r="C64" t="n">
-        <v>28.78064516129032</v>
+        <v>37.21136720347057</v>
       </c>
     </row>
     <row r="65">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>33.69666666666667</v>
+        <v>36.49302049574229</v>
       </c>
       <c r="C65" t="n">
-        <v>35.05</v>
+        <v>38.49872794929089</v>
       </c>
     </row>
     <row r="66">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>32.10645161290322</v>
+        <v>39.07083323925227</v>
       </c>
       <c r="C66" t="n">
-        <v>35.02258064516129</v>
+        <v>38.28464779844442</v>
       </c>
     </row>
     <row r="67">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>38.22666666666667</v>
+        <v>39.50464423242592</v>
       </c>
       <c r="C67" t="n">
-        <v>37.83000000000001</v>
+        <v>40.44941212893509</v>
       </c>
     </row>
     <row r="68">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>29.14193548387097</v>
+        <v>37.06895519637919</v>
       </c>
       <c r="C68" t="n">
-        <v>38.42903225806452</v>
+        <v>39.16282222874189</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>37.75806451612903</v>
+        <v>39.19512119850539</v>
       </c>
       <c r="C69" t="n">
-        <v>34.98709677419355</v>
+        <v>39.61678494426577</v>
       </c>
     </row>
     <row r="70">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>33.42666666666666</v>
+        <v>38.83531738694915</v>
       </c>
       <c r="C70" t="n">
-        <v>32.93</v>
+        <v>39.34182040279715</v>
       </c>
     </row>
     <row r="71">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>30.95161290322581</v>
+        <v>38.80302753382875</v>
       </c>
       <c r="C71" t="n">
-        <v>35.10967741935484</v>
+        <v>39.18954337776702</v>
       </c>
     </row>
     <row r="72">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>31.27</v>
+        <v>38.58723595451271</v>
       </c>
       <c r="C72" t="n">
-        <v>33.16333333333333</v>
+        <v>38.40108748102543</v>
       </c>
     </row>
     <row r="73">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>32.92258064516129</v>
+        <v>40.67438704435503</v>
       </c>
       <c r="C73" t="n">
-        <v>34.08709677419355</v>
+        <v>41.17507846900964</v>
       </c>
     </row>
     <row r="74">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29.77741935483871</v>
+        <v>38.98762924853906</v>
       </c>
       <c r="C74" t="n">
-        <v>33.66774193548387</v>
+        <v>40.40745578119466</v>
       </c>
     </row>
     <row r="75">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>41.44137931034483</v>
+        <v>43.51829669480971</v>
       </c>
       <c r="C75" t="n">
-        <v>39.32413793103449</v>
+        <v>42.22307044202104</v>
       </c>
     </row>
     <row r="76">
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>37.7483870967742</v>
+        <v>44.40500525927573</v>
       </c>
       <c r="C76" t="n">
-        <v>42.15161290322581</v>
+        <v>42.91094080249547</v>
       </c>
     </row>
     <row r="77">
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>36.26333333333334</v>
+        <v>41.91831500712009</v>
       </c>
       <c r="C77" t="n">
-        <v>40.59333333333333</v>
+        <v>43.16920990088924</v>
       </c>
     </row>
   </sheetData>
